--- a/Akan/Akanse7/AkanEnglishAligned.xlsx
+++ b/Akan/Akanse7/AkanEnglishAligned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE910308-9DFB-4637-906D-69491638A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0E3A2-8684-4254-A2BE-7D1B4EF15304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32340" yWindow="885" windowWidth="22530" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>AKAN</t>
   </si>
@@ -34,173 +34,107 @@
     <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, take some elsewhere, and let some come back to me.</t>
   </si>
   <si>
-    <t>Ye' nse se, nse se o</t>
-  </si>
-  <si>
-    <t>SE YOYE A ANANSE KOO 'PADEEM'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANANSE O ! na owaree Nyankonpon 'ni Nsia 'ba, na oka kyeree Nyame se, "Ada a wo 'ni Nsia bewu, bese me ayie." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na nnansa na ye'besee nose Nyankonpon 'ni Nsia awu. </t>
-  </si>
-  <si>
-    <t>Na Ananse abusuafuo ne 'Berekuo,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwakuo, ne Odwan. Na Ananse ka kyeree yen se, "Y'aba abese me ayie, nti mo mma yenko gya me."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse maa ye'ko see Nyankonpon se o'ba ayie.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Nyankonpon so boo dwa te se die Omanhene bi atena'se. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse see, "Anwumere na meba." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse buu boto na ode 'Berekuo, Kwakuo, ne Odwan hyeem', na ode seye, na ofuraa ne ntama guu so. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na oka kyeree mmoa no se, "Me'beduru Nyankonpon ho a, mo nsu."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na oduruu Nyankonpon anim no, na 'Berekuo ama so: " Kurukusu, ku! ku! ku! Kurukusu, ku! ku! ku! ni." </t>
-  </si>
-  <si>
-    <t>Na Kwakuo ama so: "Kakum!"</t>
-  </si>
-  <si>
-    <t>Na Odwan ama so: "Me!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwaku Ananse suye.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nnipa nnyina see, " W'aye adie; 'nipa fua ne su mmiensa."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owieye, Nyankonpon ko pee 'fie kama maa no ko tenaam'. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adeekyeye  Nyankonpon noaa  aduane  kama de  maa Ananse.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwaku Ananse  hunoo  aduane no, osee,  "Me'mma  'Berekuo,  me'mma  Kwa­ kuo, me'mma Odwan, name na m'adi abuada m'akyere." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse diye, wamma n'abusuafuo no. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na one yen tee ho a, na Nyankonpon see,"Ye'be di nnawotwe da."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Odwan see, "Okom e'ku me, me'nnko."  Kwakuo ne 'Berekuo sa'ra.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Nyankonpon ko tenaa'se, na omaa ye'ko ka kyeree Ananse se, adie fe fe a da no obeyee no, ommeye bi na one ne mpan'infuo atena'se.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, "Me  yare."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adeekyeye  Nyankonpon  ka kyeree Ananse se, "W'agu m'anim ase."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na 'Berekuo, ne Kwakuo, ne Odwan see, "Yen'so w'ama okom ade yen, nti ye'ne wo e'pae abusuam'."  </t>
-  </si>
-  <si>
-    <t>Na Kwakuo ne 'Berekuo koo wuram', na Odwan tenaa 'fie; na Ananse huriye ko taree padeem', na ani wuo ntira.</t>
-  </si>
-  <si>
-    <t>M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, namomfa bi mmera.</t>
-  </si>
-  <si>
-    <t>HOW IT CAME ABOUT THAT ANANSE, THE SPIDER, WENT UP ON THE RAFTERS</t>
-  </si>
-  <si>
-    <t>ANSE O ! he married the daughter of Nsia, the mother of the Sky-god, and he went and said to Nyame (the Sky-god), "The day your mother, Nsia, dies, come and tell me the date chosen for the funeral custom."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About three day later they came and told him that Nsia, the mother of the Sky-god, was dead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now Ananse's blood-relations were 'Berekuo, the King Jay, Kwakuo, the Monkey, and Odwan, the Sheep. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then Ananse addressed them, saying, " They have come and told me about a funeral custom, so you must accompany me." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">So Ananse caused (a message) to be sent to the Sky-god that he was coming to the ceremony.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then the Sky-god caused all his subjects to gather, just like the assembly of an Omanhene. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Ananse said, "When evening falls cool, I shall come." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider made a bag, and inside it he put 'Berekuo, the King Jay, Kwakuo, the Monkey, and Odwan, the Sheep, and he slung the bag over his shoulder, and wrapped his cloth over it.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then he addressed the creatures, saying, "When I reach the Sky-god's there, you must weep." </t>
-  </si>
-  <si>
-    <t>When he arrived before the Sky-god, the 'Berekuo lifted up (his voice):" Kurukusu, ku! ku ! ku! Kurukusu, ku! ku! ku! ni."</t>
-  </si>
-  <si>
-    <t>And the Monkey raised (his voice) : "Kakum!"</t>
-  </si>
-  <si>
-    <t>And the Sheep raised (his voice): "Me!"                    .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was the lamentation of Kwaku Ananse. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All the people said, " You have done well, here is one man who can weep and lament in three different ways." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When he had finished (his lamentation), the Sky-god looked out for a fine house for him to live in.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next morning, when things became visible, the Sky-god cooked fine food and gave it to Ananse. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When Kwaku Ananse saw this food, he said (to him­ self), " I shall not give any to 'Berekuo, I shall not give any to Kwakuo, I shall not give any to Odwan, for I have fasted for a long time." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">So Ananse ate, he did not give his blood-relations any. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now, he and they remained on and on, and the Sky-god said, "We will hold the eight-day funeral celebration." </t>
-  </si>
-  <si>
-    <t>But the Sheep said (to Ananse), "Hunger is killing me, I am not going"; Kwakuo and 'Berekuo said the same thing.</t>
-  </si>
-  <si>
-    <t>Now the Sky-god went to sit among the assembled people, and he caused them to inform Ananse that the fine thing which he did the other day, he may do it again, for he and his elders were assembled (to listen to it).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse replied, "I  do not feel well."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next day the Sky-god said to Ananse, "You have made my eyes drop for shame." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And 'Berekuo, and Kwakuo, and Odwan said," We too, you have caused us to be hungry, so we and you will split away from the clan." </t>
-  </si>
-  <si>
-    <t>So Kwakuo and 'Berekuo went off to the bush, but Odwan, the Sheep, remained at home; and the Spider jumped and flattened himself against the rafters; that was because he was ashamed.</t>
+    <t>Ye' nse se, nse se</t>
+  </si>
+  <si>
+    <t>SE YOYE A AKETEKYIRE, SE HYEYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKETEKYIRE ne Ananse na esiim' se ye'ko pe aburo abedua. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ye'nyaa aburo mmienu pe. </t>
+  </si>
+  <si>
+    <t>Na Ananse see, "Me'ko dua me die."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t Na Aketekyire see, "Me'ko kye me die m'awe." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse ko duaa ne die. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aketekyire so de ne die ko sii ogya so. </t>
+  </si>
+  <si>
+    <t>Emenee da, na osi ho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse so koo afuom'; osee o'fe ani afwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aburo see, "Mfe m'ani, na wo nsa bewo m'ani." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse se o'twa n'ani afwe ne 'Kraman; ne 'Kraman see, "Nfwe me, na nye me na me yee." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse se o'bu aba abefwe 'Kraman no, na Aba see, " Mmu me, na wo 'Kraman beka me." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse baa 'fie beboo Aketekyire amanee. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ose o'sere na oda 'gyam'. </t>
+  </si>
+  <si>
+    <t>Ene se Aketekyire 'se hyeye.</t>
+  </si>
+  <si>
+    <t>M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, na. momfa bi mmera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOW AKETEKYIRE, THE CRICKET, GOT HIS TEETH BURNED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AETEKYIRE, the Cricket, and Ananse, the Spider, started off, saying they were going in search of corn in order to plant it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And they got just two grains of corn. And Ananse said, " I am going off to plant mine." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the Cricket said, " I am going to roast mine in order to chew it." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse went and planted his. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cricket, he, too, took his, and put it on the fire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was long in getting cooked, and he sat down there (beside it). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider, too, he went off to the plantation; he was about to peep under the sheath covering the corn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Corn said, " Don't peep into my eye, lest your finger goes into my eye." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse was turning his eyes to look at his Dog; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">his Dog said, "You need not look at me, it was not I who did it." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse was about to break off a stick to beat the Dog, when the stick said, "Don't break me, for (if you do) your Dog will bite me." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse came home and told the Cricket all about it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While he was laughing, he fell into the fire. </t>
+  </si>
+  <si>
+    <t>That is how the Cricket got his teeth burned.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +144,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="136.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="136.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="136.90625" style="2"/>
   </cols>
@@ -596,15 +537,15 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -612,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -620,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -628,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -636,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -644,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -652,15 +593,15 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -668,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -676,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -684,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -692,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -700,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -708,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -716,94 +657,6 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Akan/Akanse7/AkanEnglishAligned.xlsx
+++ b/Akan/Akanse7/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B0E3A2-8684-4254-A2BE-7D1B4EF15304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD500AAF-620A-4D0B-A943-67104D5B1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="885" windowWidth="22530" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>AKAN</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Na Ananse see, "Me'ko dua me die."</t>
   </si>
   <si>
-    <t xml:space="preserve">t Na Aketekyire see, "Me'ko kye me die m'awe." </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ananse ko duaa ne die. </t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t xml:space="preserve">Aburo see, "Mfe m'ani, na wo nsa bewo m'ani." </t>
   </si>
   <si>
-    <t xml:space="preserve">Ananse se o'twa n'ani afwe ne 'Kraman; ne 'Kraman see, "Nfwe me, na nye me na me yee." </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ananse se o'bu aba abefwe 'Kraman no, na Aba see, " Mmu me, na wo 'Kraman beka me." </t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t xml:space="preserve">AETEKYIRE, the Cricket, and Ananse, the Spider, started off, saying they were going in search of corn in order to plant it. </t>
   </si>
   <si>
-    <t xml:space="preserve">And they got just two grains of corn. And Ananse said, " I am going off to plant mine." </t>
-  </si>
-  <si>
     <t xml:space="preserve">And the Cricket said, " I am going to roast mine in order to chew it." </t>
   </si>
   <si>
@@ -128,6 +119,21 @@
   </si>
   <si>
     <t>That is how the Cricket got his teeth burned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And they got just two grains of corn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And Ananse said, " I am going off to plant mine." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Aketekyire see, "Me'ko kye me die m'awe." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse se o'twa n'ani afwe ne 'Kraman; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ne 'Kraman see, "Nfwe me, na nye me na me yee." </t>
   </si>
 </sst>
 </file>
@@ -505,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="136.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="95.54296875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="136.90625" style="2"/>
+    <col min="1" max="16384" width="95.54296875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -537,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -545,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -561,102 +567,110 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
